--- a/Nowcasts/2025Q4/tables/nowcasts_2025Q4_Nr2_Np1_Nj0.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2025Q4_Nr2_Np1_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -189,58 +240,58 @@
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="14.24609375" customWidth="true"/>
-    <col min="3" max="3" width="14.64453125" customWidth="true"/>
-    <col min="4" max="4" width="15.64453125" customWidth="true"/>
-    <col min="5" max="5" width="16.24609375" customWidth="true"/>
-    <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="16.24609375" customWidth="true"/>
-    <col min="8" max="8" width="16.24609375" customWidth="true"/>
-    <col min="9" max="9" width="16.24609375" customWidth="true"/>
-    <col min="10" max="10" width="15.1796875" customWidth="true"/>
+    <col min="3" max="3" width="13.64453125" customWidth="true"/>
+    <col min="4" max="4" width="12.64453125" customWidth="true"/>
+    <col min="5" max="5" width="15.64453125" customWidth="true"/>
+    <col min="6" max="6" width="15.24609375" customWidth="true"/>
+    <col min="7" max="7" width="14.24609375" customWidth="true"/>
+    <col min="8" max="8" width="15.64453125" customWidth="true"/>
+    <col min="9" max="9" width="14.64453125" customWidth="true"/>
+    <col min="10" max="10" width="15.046875" customWidth="true"/>
     <col min="11" max="11" width="16.24609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.30227355381013249</v>
+        <v>-0.046160528732501593</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.30269607986621933</v>
+        <v>-0.14169683404520156</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.0002268300018578295</v>
+        <v>-0.11239818496199593</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.0001486306489005025</v>
+        <v>0.0012958852851826384</v>
       </c>
       <c r="F3" s="0">
-        <v>0.00090924605424362495</v>
+        <v>-0.0043413598638907085</v>
       </c>
       <c r="G3" s="0">
-        <v>-0.0004755298814557422</v>
+        <v>0.018309610695356179</v>
       </c>
       <c r="H3" s="0">
-        <v>2.3268583311382257e-05</v>
+        <v>0.00076872557144721306</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.0001181357335057091</v>
+        <v>0.0010904404945456768</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>5.4776805359368907e-06</v>
+        <v>-0.00026142253334503207</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.30580798527911696</v>
+        <v>0.39432928578617749</v>
       </c>
       <c r="C4" s="0">
-        <v>0.0033480694047407617</v>
+        <v>0.40974495160245517</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-1.645090226207211e-06</v>
+        <v>0.00026659463891430979</v>
       </c>
       <c r="F4" s="0">
-        <v>9.7022908440273724e-06</v>
+        <v>0.00040227084900781905</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>1.8712422071628805e-06</v>
+        <v>-0.010580246548252065</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.00024653711799017645</v>
+        <v>0.071702737783378892</v>
       </c>
       <c r="J4" s="0">
-        <v>9.6215410638828735e-09</v>
+        <v>0.067818218941395128</v>
       </c>
       <c r="K4" s="0">
-        <v>4.3506178099006476e-07</v>
+        <v>-0.0033284074355202087</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.30779936083722464</v>
+        <v>0.47083812897849175</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>0.0043670512179191249</v>
+        <v>0.1179628600760546</v>
       </c>
       <c r="E5" s="0">
-        <v>-5.9614028670987485e-06</v>
+        <v>0.0302414362549852</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.00056336328012121669</v>
+        <v>-0.052489672140511728</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.00027970993241331263</v>
+        <v>-0.0215715132230756</v>
       </c>
       <c r="H5" s="0">
-        <v>4.4086132650244045e-05</v>
+        <v>-0.0080686438515930464</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.0015762667111629547</v>
+        <v>0.001751973492236971</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>5.5395341029274014e-06</v>
+        <v>0.0086824025842178743</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.3174101342945107</v>
+        <v>0.44332747340601908</v>
       </c>
       <c r="C6" s="0">
-        <v>0.01420906286038778</v>
+        <v>0.085049797013860395</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-1.2759077186317521e-05</v>
+        <v>0.0003858399494706138</v>
       </c>
       <c r="F6" s="0">
-        <v>1.5529670158687834e-05</v>
+        <v>-0.0032210136107410645</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-0.00037619098256249392</v>
+        <v>-0.015457614347865651</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0042250540105453508</v>
+        <v>-0.094560298667981005</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>1.8499703374752485e-07</v>
+        <v>0.00029263409078406077</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.24410084372328678</v>
+        <v>0.44451643806936625</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.068309958086380199</v>
+        <v>0.07565756620110474</v>
       </c>
       <c r="E7" s="0">
-        <v>0.00018115987502270855</v>
+        <v>-0.022987634769276045</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0028154066519100272</v>
+        <v>-0.033007224657374351</v>
       </c>
       <c r="G7" s="0">
-        <v>-0.0022797462425295542</v>
+        <v>0.0067548463233778723</v>
       </c>
       <c r="H7" s="0">
-        <v>-6.8544875352855752e-05</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>-6.1394343945282535e-05</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>4.4599753871277237e-05</v>
+        <v>-0.025228588434485055</v>
       </c>
     </row>
     <row r="8">
